--- a/biology/Botanique/Carolina_Reaper/Carolina_Reaper.xlsx
+++ b/biology/Botanique/Carolina_Reaper/Carolina_Reaper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carolina Reaper (la « Faucheuse de la Caroline ») est un cultivar de piment de l'espèce Capsicum chinense, qui fut de 2013 à 2023 le piment le plus fort du monde avant l'arrivée du piment du Pepper X. Initialement nommé « HP22BNH », le Carolina Reaper est cultivé par Ed Currie, qui dirige la PuckerButt Pepper Company à Fort Mill en Caroline du Sud (sud-est des États-Unis) et cultive également son successeur le Pepper X. 
-Le croisement original était entre des piments Habanero de l'ile caribéenne Saint-Vincent et des piments Naga Bhut Jolokia du Pakistan[1]. Le Carolina Reaper a été classé comme le plus fort piment par le Guinness World Records depuis 2013[2]. Il se situe en moyenne à 1 569 300 sur l'échelle de Scoville avec des pointes à plus de 2 200 000 Scoville Heat Units (SHU).
-Le précédent record pour les piments était détenu par le Trinidad moruga scorpion[3].
+Le croisement original était entre des piments Habanero de l'ile caribéenne Saint-Vincent et des piments Naga Bhut Jolokia du Pakistan. Le Carolina Reaper a été classé comme le plus fort piment par le Guinness World Records depuis 2013. Il se situe en moyenne à 1 569 300 sur l'échelle de Scoville avec des pointes à plus de 2 200 000 Scoville Heat Units (SHU).
+Le précédent record pour les piments était détenu par le Trinidad moruga scorpion.
 </t>
         </is>
       </c>
